--- a/data/Inputs/GOCPI OseMOSYS/region_annualised_market_returns.xlsx
+++ b/data/Inputs/GOCPI OseMOSYS/region_annualised_market_returns.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connor/Google Drive/Documents/University/Courses/2020/ENGSCI 700A&amp;B/GOCPI/data/Inputs/GOCPI OseMOSYS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA29902E-A4AA-2F4B-803E-FA4B2F8E9062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08EEFE9A-1F40-6443-8ED0-25C65121F423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="NEWZEALAND" sheetId="1" r:id="rId1"/>
-    <sheet name="AUSTRALIA" sheetId="2" r:id="rId2"/>
+    <sheet name="NZ" sheetId="1" r:id="rId1"/>
+    <sheet name="AUS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B214"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="A214" sqref="A214:B214"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2606,8 +2606,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
